--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_10_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_10_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50461.81402182696</v>
+        <v>10041900.99034355</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50461.81402182696</v>
+        <v>10041900.99034355</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.773511938165996</v>
+        <v>286.4107162899597</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.773511938165996</v>
+        <v>286.4107162899597</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958960843.7426397</v>
+        <v>39302275.08597177</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7979.622786756731</v>
+        <v>879049.9469131582</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15369.09918771627</v>
+        <v>1666136.729561339</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22758.57558867579</v>
+        <v>2453223.51220952</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30481.6322426704</v>
+        <v>3254044.659387089</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38135.79192696803</v>
+        <v>4041155.309594962</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45789.95161126565</v>
+        <v>4828265.959802832</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53444.11129556326</v>
+        <v>5615376.610010701</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61098.27097986088</v>
+        <v>6402487.260218569</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68752.43066415851</v>
+        <v>7189597.910426438</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76406.59034845613</v>
+        <v>7976708.560634307</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84060.75003275374</v>
+        <v>8763819.210842181</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91714.90971705134</v>
+        <v>9550929.861050058</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99369.06940134894</v>
+        <v>10338040.51125794</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>107023.2290856466</v>
+        <v>11125151.16146581</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>114677.3887699442</v>
+        <v>11912261.81167369</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>350</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>350</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>385</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>174</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
